--- a/temperaturas.xlsx
+++ b/temperaturas.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silsi\apuntes_clase\PROYECTO-FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A941844E-6CE6-4659-9F3D-125FE606A10B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82494233-BF0A-4A8D-9177-93DA2C6C30CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="144" yWindow="264" windowWidth="9492" windowHeight="8880" xr2:uid="{08E9103D-1DC9-4F37-A1EF-BE8D19EC3819}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08E9103D-1DC9-4F37-A1EF-BE8D19EC3819}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
   <si>
     <t>ciudad</t>
   </si>
@@ -98,9 +98,6 @@
     <t>Suecia-Estocolmo</t>
   </si>
   <si>
-    <t>Ucrania-Kiev</t>
-  </si>
-  <si>
     <t>Alemania-Berlin</t>
   </si>
   <si>
@@ -116,9 +113,6 @@
     <t>Eslovaquia-Bratislava</t>
   </si>
   <si>
-    <t>España-Madrid</t>
-  </si>
-  <si>
     <t>Finlandia-Helsinki</t>
   </si>
   <si>
@@ -144,9 +138,6 @@
   </si>
   <si>
     <t>Rumania-Bucarest</t>
-  </si>
-  <si>
-    <t>Suiza-Berna</t>
   </si>
   <si>
     <t>Yugoslavia-Belgrado</t>
@@ -501,10 +492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED70D712-C13E-4AC1-8CFC-87AF76F67E12}">
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="A20" sqref="A20:XFD20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -669,7 +660,7 @@
         <v>20</v>
       </c>
       <c r="B20">
-        <v>1.2</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -677,7 +668,7 @@
         <v>21</v>
       </c>
       <c r="B21">
-        <v>1.9</v>
+        <v>5.8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
@@ -685,7 +676,7 @@
         <v>22</v>
       </c>
       <c r="B22">
-        <v>5.8</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
@@ -693,7 +684,7 @@
         <v>23</v>
       </c>
       <c r="B23">
-        <v>2.2999999999999998</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
@@ -701,7 +692,7 @@
         <v>24</v>
       </c>
       <c r="B24">
-        <v>2.9</v>
+        <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -709,7 +700,7 @@
         <v>25</v>
       </c>
       <c r="B25">
-        <v>2.2999999999999998</v>
+        <v>-6.7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
@@ -717,7 +708,7 @@
         <v>26</v>
       </c>
       <c r="B26">
-        <v>8.8000000000000007</v>
+        <v>1.2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
@@ -725,7 +716,7 @@
         <v>27</v>
       </c>
       <c r="B27">
-        <v>-6.7</v>
+        <v>1.6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -733,7 +724,7 @@
         <v>28</v>
       </c>
       <c r="B28">
-        <v>1.2</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
@@ -741,7 +732,7 @@
         <v>29</v>
       </c>
       <c r="B29">
-        <v>1.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -749,7 +740,7 @@
         <v>30</v>
       </c>
       <c r="B30">
-        <v>-2</v>
+        <v>13.5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
@@ -757,7 +748,7 @@
         <v>31</v>
       </c>
       <c r="B31">
-        <v>3.7</v>
+        <v>-4.8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
@@ -765,7 +756,7 @@
         <v>32</v>
       </c>
       <c r="B32">
-        <v>13.5</v>
+        <v>-0.9</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -773,7 +764,7 @@
         <v>33</v>
       </c>
       <c r="B33">
-        <v>-4.8</v>
+        <v>2.5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
@@ -781,30 +772,6 @@
         <v>34</v>
       </c>
       <c r="B34">
-        <v>-0.9</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B35">
-        <v>2.5</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B36">
-        <v>1.2</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>37</v>
-      </c>
-      <c r="B37">
         <v>4</v>
       </c>
     </row>

--- a/temperaturas.xlsx
+++ b/temperaturas.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silsi\apuntes_clase\PROYECTO-FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82494233-BF0A-4A8D-9177-93DA2C6C30CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F851AD6A-D054-4778-85C3-464CD83E1D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08E9103D-1DC9-4F37-A1EF-BE8D19EC3819}"/>
   </bookViews>
@@ -36,111 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>ciudad</t>
   </si>
   <si>
-    <t>T/m dic 2021</t>
-  </si>
-  <si>
-    <t>Albania-Tirana</t>
-  </si>
-  <si>
-    <t>Austria-Viena</t>
-  </si>
-  <si>
-    <t>Bielorrusia-Minsk</t>
-  </si>
-  <si>
-    <t>Bulgaria-Sofia</t>
-  </si>
-  <si>
-    <t>Dinamarca-Copenhague</t>
-  </si>
-  <si>
-    <t>Eslovenia-Liubliana</t>
-  </si>
-  <si>
-    <t>Estonia-Tallín</t>
-  </si>
-  <si>
-    <t>Francia-Paris</t>
-  </si>
-  <si>
-    <t>Grecia-Atenas</t>
-  </si>
-  <si>
-    <t>Irlanda-Dublin</t>
-  </si>
-  <si>
-    <t>Italia-Roma</t>
-  </si>
-  <si>
-    <t>Lituania-Vilna</t>
-  </si>
-  <si>
-    <t>Macedonia-Skopie</t>
-  </si>
-  <si>
-    <t>Moldavia-Chisinau</t>
-  </si>
-  <si>
-    <t>Paises Bajos-Amsterdam</t>
-  </si>
-  <si>
-    <t>Portugal-Lisboa</t>
-  </si>
-  <si>
-    <t>República Checa-Praga</t>
-  </si>
-  <si>
-    <t>Suecia-Estocolmo</t>
-  </si>
-  <si>
-    <t>Alemania-Berlin</t>
-  </si>
-  <si>
-    <t>Belgica-Bruselas</t>
-  </si>
-  <si>
-    <t>Bosnia Hercegovina-Sarajevo</t>
-  </si>
-  <si>
-    <t>Croacia-Zagreb</t>
-  </si>
-  <si>
-    <t>Eslovaquia-Bratislava</t>
-  </si>
-  <si>
-    <t>Finlandia-Helsinki</t>
-  </si>
-  <si>
-    <t>Hungría-Budapest</t>
-  </si>
-  <si>
-    <t>Islandia-Reikiavik</t>
-  </si>
-  <si>
-    <t>Letonia-Riga</t>
-  </si>
-  <si>
-    <t>Luxemburgo-Luxemburgo</t>
-  </si>
-  <si>
-    <t>Malta-La Valeta</t>
-  </si>
-  <si>
-    <t>Noruega-Oslo</t>
-  </si>
-  <si>
-    <t>Polonia-Varsovia</t>
-  </si>
-  <si>
-    <t>Rumania-Bucarest</t>
-  </si>
-  <si>
-    <t>Yugoslavia-Belgrado</t>
+    <t>Temp</t>
   </si>
 </sst>
 </file>
@@ -494,8 +395,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED70D712-C13E-4AC1-8CFC-87AF76F67E12}">
   <dimension ref="A1:B34"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -512,264 +413,264 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
+      <c r="A2">
+        <v>1</v>
       </c>
       <c r="B2">
         <v>7.6</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
+      <c r="A3">
+        <v>2</v>
       </c>
       <c r="B3">
         <v>4.2</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>4</v>
+      <c r="A4">
+        <v>3</v>
       </c>
       <c r="B4">
         <v>-3.9</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>5</v>
+      <c r="A5">
+        <v>4</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>6</v>
+      <c r="A6">
+        <v>5</v>
       </c>
       <c r="B6">
         <v>2.2000000000000002</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>7</v>
+      <c r="A7">
+        <v>6</v>
       </c>
       <c r="B7">
         <v>1.2</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>8</v>
+      <c r="A8">
+        <v>7</v>
       </c>
       <c r="B8">
         <v>-6.2</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>9</v>
+      <c r="A9">
+        <v>8</v>
       </c>
       <c r="B9">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>10</v>
+      <c r="A10">
+        <v>9</v>
       </c>
       <c r="B10">
         <v>12.2</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>11</v>
+      <c r="A11">
+        <v>10</v>
       </c>
       <c r="B11">
         <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>12</v>
+      <c r="A12">
+        <v>11</v>
       </c>
       <c r="B12">
         <v>9.1999999999999993</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>13</v>
+      <c r="A13">
+        <v>12</v>
       </c>
       <c r="B13">
         <v>-3.9</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>14</v>
+      <c r="A14">
+        <v>13</v>
       </c>
       <c r="B14">
         <v>2.9</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>15</v>
+      <c r="A15">
+        <v>14</v>
       </c>
       <c r="B15">
         <v>0.4</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
+      <c r="A16">
+        <v>15</v>
       </c>
       <c r="B16">
         <v>5.7</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>17</v>
+      <c r="A17">
+        <v>16</v>
       </c>
       <c r="B17">
         <v>13.8</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>18</v>
+      <c r="A18">
+        <v>17</v>
       </c>
       <c r="B18">
         <v>1.3</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>19</v>
+      <c r="A19">
+        <v>18</v>
       </c>
       <c r="B19">
         <v>-2.4</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>20</v>
+      <c r="A20">
+        <v>19</v>
       </c>
       <c r="B20">
         <v>1.9</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>21</v>
+      <c r="A21">
+        <v>20</v>
       </c>
       <c r="B21">
         <v>5.8</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>22</v>
+      <c r="A22">
+        <v>21</v>
       </c>
       <c r="B22">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" t="s">
-        <v>23</v>
+      <c r="A23">
+        <v>22</v>
       </c>
       <c r="B23">
         <v>2.9</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
-        <v>24</v>
+      <c r="A24">
+        <v>23</v>
       </c>
       <c r="B24">
         <v>2.2999999999999998</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" t="s">
-        <v>25</v>
+      <c r="A25">
+        <v>24</v>
       </c>
       <c r="B25">
         <v>-6.7</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" t="s">
-        <v>26</v>
+      <c r="A26">
+        <v>25</v>
       </c>
       <c r="B26">
         <v>1.2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
-        <v>27</v>
+      <c r="A27">
+        <v>26</v>
       </c>
       <c r="B27">
         <v>1.6</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>28</v>
+      <c r="A28">
+        <v>27</v>
       </c>
       <c r="B28">
         <v>-2</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" t="s">
-        <v>29</v>
+      <c r="A29">
+        <v>28</v>
       </c>
       <c r="B29">
         <v>3.7</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>30</v>
+      <c r="A30">
+        <v>29</v>
       </c>
       <c r="B30">
         <v>13.5</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" t="s">
-        <v>31</v>
+      <c r="A31">
+        <v>30</v>
       </c>
       <c r="B31">
         <v>-4.8</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>32</v>
+      <c r="A32">
+        <v>31</v>
       </c>
       <c r="B32">
         <v>-0.9</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" t="s">
-        <v>33</v>
+      <c r="A33">
+        <v>32</v>
       </c>
       <c r="B33">
         <v>2.5</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>34</v>
+      <c r="A34">
+        <v>33</v>
       </c>
       <c r="B34">
         <v>4</v>

--- a/temperaturas.xlsx
+++ b/temperaturas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silsi\apuntes_clase\PROYECTO-FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F851AD6A-D054-4778-85C3-464CD83E1D21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E4698E-FC78-4398-B027-46DD1514AE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08E9103D-1DC9-4F37-A1EF-BE8D19EC3819}"/>
   </bookViews>
@@ -36,12 +36,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>ciudad</t>
   </si>
   <si>
-    <t>Temp</t>
+    <t>T-Dic</t>
+  </si>
+  <si>
+    <t>T-ene</t>
+  </si>
+  <si>
+    <t>T-feb</t>
+  </si>
+  <si>
+    <t>T-mar</t>
+  </si>
+  <si>
+    <t>T-abr</t>
+  </si>
+  <si>
+    <t>T-jun</t>
+  </si>
+  <si>
+    <t>T-jul</t>
+  </si>
+  <si>
+    <t>T-may</t>
+  </si>
+  <si>
+    <t>T-ago</t>
+  </si>
+  <si>
+    <t>T-sep</t>
+  </si>
+  <si>
+    <t>T-oct</t>
+  </si>
+  <si>
+    <t>T-nov</t>
   </si>
 </sst>
 </file>
@@ -393,286 +426,1405 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ED70D712-C13E-4AC1-8CFC-87AF76F67E12}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="24.6640625" customWidth="1"/>
-  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+      <c r="K1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" t="s">
+        <v>12</v>
+      </c>
+      <c r="M1" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2">
+        <v>5.7</v>
+      </c>
+      <c r="C2">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="D2">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E2">
+        <v>14</v>
+      </c>
+      <c r="F2">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="G2">
+        <v>25.3</v>
+      </c>
+      <c r="H2">
+        <v>26.3</v>
+      </c>
+      <c r="I2">
+        <v>25.7</v>
+      </c>
+      <c r="J2">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="L2">
+        <v>13.3</v>
+      </c>
+      <c r="M2">
         <v>7.6</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
+        <v>2.8</v>
+      </c>
+      <c r="C3">
+        <v>5.6</v>
+      </c>
+      <c r="D3">
+        <v>5.5</v>
+      </c>
+      <c r="E3">
+        <v>9.4</v>
+      </c>
+      <c r="F3">
+        <v>17.3</v>
+      </c>
+      <c r="G3">
+        <v>21.5</v>
+      </c>
+      <c r="H3">
+        <v>22.4</v>
+      </c>
+      <c r="I3">
+        <v>22.5</v>
+      </c>
+      <c r="J3">
+        <v>15.5</v>
+      </c>
+      <c r="K3">
+        <v>12.8</v>
+      </c>
+      <c r="L3">
+        <v>6.4</v>
+      </c>
+      <c r="M3">
         <v>4.2</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
+        <v>-2.5</v>
+      </c>
+      <c r="C4">
+        <v>-0.5</v>
+      </c>
+      <c r="D4">
+        <v>0.6</v>
+      </c>
+      <c r="E4">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="F4">
+        <v>11</v>
+      </c>
+      <c r="G4">
+        <v>18.5</v>
+      </c>
+      <c r="H4">
+        <v>18</v>
+      </c>
+      <c r="I4">
+        <v>20.8</v>
+      </c>
+      <c r="J4">
+        <v>10.1</v>
+      </c>
+      <c r="K4">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="L4">
+        <v>1.4</v>
+      </c>
+      <c r="M4">
         <v>-3.9</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
+        <v>-0.2</v>
+      </c>
+      <c r="C5">
+        <v>2.8</v>
+      </c>
+      <c r="D5">
+        <v>2.7</v>
+      </c>
+      <c r="E5">
+        <v>10.1</v>
+      </c>
+      <c r="F5">
+        <v>16.3</v>
+      </c>
+      <c r="G5">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="H5">
+        <v>22.1</v>
+      </c>
+      <c r="I5">
+        <v>21.6</v>
+      </c>
+      <c r="J5">
+        <v>15.9</v>
+      </c>
+      <c r="K5">
+        <v>11.9</v>
+      </c>
+      <c r="L5">
+        <v>7.8</v>
+      </c>
+      <c r="M5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>4.0999999999999996</v>
+      </c>
+      <c r="D6">
+        <v>4.3</v>
+      </c>
+      <c r="E6">
+        <v>6.9</v>
+      </c>
+      <c r="F6">
+        <v>12.4</v>
+      </c>
+      <c r="G6">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H6">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="I6">
+        <v>19.399999999999999</v>
+      </c>
+      <c r="J6">
+        <v>14.3</v>
+      </c>
+      <c r="K6">
+        <v>12.5</v>
+      </c>
+      <c r="L6">
+        <v>8.1</v>
+      </c>
+      <c r="M6">
         <v>2.2000000000000002</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7">
+        <v>-1.5</v>
+      </c>
+      <c r="C7">
+        <v>2.8</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>8.4</v>
+      </c>
+      <c r="F7">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="G7">
+        <v>20.9</v>
+      </c>
+      <c r="H7">
+        <v>22.2</v>
+      </c>
+      <c r="I7">
+        <v>21.3</v>
+      </c>
+      <c r="J7">
+        <v>14.5</v>
+      </c>
+      <c r="K7">
+        <v>12.4</v>
+      </c>
+      <c r="L7">
+        <v>6.2</v>
+      </c>
+      <c r="M7">
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8">
+        <v>-2.5</v>
+      </c>
+      <c r="C8">
+        <v>-0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.4</v>
+      </c>
+      <c r="E8">
+        <v>4.5</v>
+      </c>
+      <c r="F8">
+        <v>10.4</v>
+      </c>
+      <c r="G8">
+        <v>17.5</v>
+      </c>
+      <c r="H8">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I8">
+        <v>19.7</v>
+      </c>
+      <c r="J8">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="K8">
+        <v>8</v>
+      </c>
+      <c r="L8">
+        <v>1.6</v>
+      </c>
+      <c r="M8">
         <v>-6.2</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="C9">
+        <v>7.7</v>
+      </c>
+      <c r="D9">
+        <v>9.4</v>
+      </c>
+      <c r="E9">
+        <v>11.3</v>
+      </c>
+      <c r="F9">
+        <v>16.7</v>
+      </c>
+      <c r="G9">
+        <v>19.7</v>
+      </c>
+      <c r="H9">
+        <v>22.2</v>
+      </c>
+      <c r="I9">
+        <v>22.5</v>
+      </c>
+      <c r="J9">
+        <v>16.7</v>
+      </c>
+      <c r="K9">
+        <v>15.5</v>
+      </c>
+      <c r="L9">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="M9">
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>11.6</v>
+      </c>
+      <c r="D10">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="E10">
+        <v>17</v>
+      </c>
+      <c r="F10">
+        <v>21.6</v>
+      </c>
+      <c r="G10">
+        <v>27.1</v>
+      </c>
+      <c r="H10">
+        <v>29.2</v>
+      </c>
+      <c r="I10">
+        <v>28.2</v>
+      </c>
+      <c r="J10">
+        <v>24.6</v>
+      </c>
+      <c r="K10">
+        <v>21.6</v>
+      </c>
+      <c r="L10">
+        <v>11.8</v>
+      </c>
+      <c r="M10">
         <v>12.2</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11">
+        <v>5.9</v>
+      </c>
+      <c r="C11">
+        <v>6.9</v>
+      </c>
+      <c r="D11">
+        <v>6.8</v>
+      </c>
+      <c r="E11">
+        <v>8.1</v>
+      </c>
+      <c r="F11">
+        <v>12.1</v>
+      </c>
+      <c r="G11">
+        <v>13.7</v>
+      </c>
+      <c r="H11">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="I11">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="J11">
+        <v>13.3</v>
+      </c>
+      <c r="K11">
+        <v>12.4</v>
+      </c>
+      <c r="L11">
+        <v>9.1</v>
+      </c>
+      <c r="M11">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12">
+        <v>7.4</v>
+      </c>
+      <c r="C12">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="D12">
+        <v>9.6</v>
+      </c>
+      <c r="E12">
+        <v>13.4</v>
+      </c>
+      <c r="F12">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="G12">
+        <v>25.9</v>
+      </c>
+      <c r="H12">
+        <v>27.6</v>
+      </c>
+      <c r="I12">
+        <v>26.6</v>
+      </c>
+      <c r="J12">
+        <v>22.4</v>
+      </c>
+      <c r="K12">
+        <v>19</v>
+      </c>
+      <c r="L12">
+        <v>13.5</v>
+      </c>
+      <c r="M12">
         <v>9.1999999999999993</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13">
+        <v>-1.6</v>
+      </c>
+      <c r="C13">
+        <v>0.2</v>
+      </c>
+      <c r="D13">
+        <v>1.4</v>
+      </c>
+      <c r="E13">
+        <v>5.4</v>
+      </c>
+      <c r="F13">
+        <v>10.9</v>
+      </c>
+      <c r="G13">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="H13">
+        <v>17.8</v>
+      </c>
+      <c r="I13">
+        <v>20.7</v>
+      </c>
+      <c r="J13">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="K13">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="L13">
+        <v>1.9</v>
+      </c>
+      <c r="M13">
         <v>-3.9</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14">
+        <v>0.7</v>
+      </c>
+      <c r="C14">
+        <v>4.7</v>
+      </c>
+      <c r="D14">
+        <v>5.2</v>
+      </c>
+      <c r="E14">
+        <v>11.9</v>
+      </c>
+      <c r="F14">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="G14">
+        <v>23.1</v>
+      </c>
+      <c r="H14">
+        <v>24.4</v>
+      </c>
+      <c r="I14">
+        <v>23.8</v>
+      </c>
+      <c r="J14">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="K14">
+        <v>13.3</v>
+      </c>
+      <c r="L14">
+        <v>7.5</v>
+      </c>
+      <c r="M14">
         <v>2.9</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15">
+        <v>-0.2</v>
+      </c>
+      <c r="C15">
+        <v>3.2</v>
+      </c>
+      <c r="D15">
+        <v>3.2</v>
+      </c>
+      <c r="E15">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="F15">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="G15">
+        <v>21.9</v>
+      </c>
+      <c r="H15">
+        <v>23.3</v>
+      </c>
+      <c r="I15">
+        <v>23.3</v>
+      </c>
+      <c r="J15">
+        <v>15.9</v>
+      </c>
+      <c r="K15">
+        <v>12.4</v>
+      </c>
+      <c r="L15">
+        <v>5.4</v>
+      </c>
+      <c r="M15">
         <v>0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16">
         <v>5.7</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C16">
+        <v>7</v>
+      </c>
+      <c r="D16">
+        <v>7.8</v>
+      </c>
+      <c r="E16">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="F16">
+        <v>14.1</v>
+      </c>
+      <c r="G16">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="H16">
+        <v>18.8</v>
+      </c>
+      <c r="I16">
+        <v>20.3</v>
+      </c>
+      <c r="J16">
+        <v>15.5</v>
+      </c>
+      <c r="K16">
+        <v>13.5</v>
+      </c>
+      <c r="L16">
+        <v>8.9</v>
+      </c>
+      <c r="M16">
+        <v>5.7</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17">
+        <v>12</v>
+      </c>
+      <c r="C17">
         <v>13.8</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="D17">
+        <v>13.8</v>
+      </c>
+      <c r="E17">
+        <v>15.1</v>
+      </c>
+      <c r="F17">
+        <v>20.5</v>
+      </c>
+      <c r="G17">
+        <v>20.5</v>
+      </c>
+      <c r="H17">
+        <v>24.8</v>
+      </c>
+      <c r="I17">
+        <v>22.3</v>
+      </c>
+      <c r="J17">
+        <v>21.5</v>
+      </c>
+      <c r="K17">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="L17">
+        <v>16.5</v>
+      </c>
+      <c r="M17">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18">
+        <v>1.6</v>
+      </c>
+      <c r="C18">
+        <v>3.8</v>
+      </c>
+      <c r="D18">
+        <v>4.2</v>
+      </c>
+      <c r="E18">
+        <v>7.1</v>
+      </c>
+      <c r="F18">
+        <v>15.1</v>
+      </c>
+      <c r="G18">
+        <v>19.2</v>
+      </c>
+      <c r="H18">
+        <v>19.2</v>
+      </c>
+      <c r="I18">
+        <v>20</v>
+      </c>
+      <c r="J18">
+        <v>13</v>
+      </c>
+      <c r="K18">
+        <v>11.3</v>
+      </c>
+      <c r="L18">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="M18">
         <v>1.3</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19">
+        <v>-1.2</v>
+      </c>
+      <c r="C19">
+        <v>-0.5</v>
+      </c>
+      <c r="D19">
+        <v>1.9</v>
+      </c>
+      <c r="E19">
+        <v>3.7</v>
+      </c>
+      <c r="F19">
+        <v>10</v>
+      </c>
+      <c r="G19">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="H19">
+        <v>16.2</v>
+      </c>
+      <c r="I19">
+        <v>17.2</v>
+      </c>
+      <c r="J19">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="K19">
+        <v>8.4</v>
+      </c>
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19">
         <v>-2.4</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20">
+        <v>3.4</v>
+      </c>
+      <c r="C20">
+        <v>5</v>
+      </c>
+      <c r="D20">
+        <v>5.2</v>
+      </c>
+      <c r="E20">
+        <v>8.5</v>
+      </c>
+      <c r="F20">
+        <v>15.8</v>
+      </c>
+      <c r="G20">
+        <v>20.3</v>
+      </c>
+      <c r="H20">
+        <v>20.399999999999999</v>
+      </c>
+      <c r="I20">
+        <v>21.7</v>
+      </c>
+      <c r="J20">
+        <v>13.9</v>
+      </c>
+      <c r="K20">
+        <v>12.7</v>
+      </c>
+      <c r="L20">
+        <v>5.7</v>
+      </c>
+      <c r="M20">
         <v>1.9</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21">
+        <v>4.7</v>
+      </c>
+      <c r="C21">
+        <v>6.9</v>
+      </c>
+      <c r="D21">
+        <v>8.1999999999999993</v>
+      </c>
+      <c r="E21">
+        <v>9.9</v>
+      </c>
+      <c r="F21">
+        <v>15.1</v>
+      </c>
+      <c r="G21">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="H21">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="I21">
+        <v>20.8</v>
+      </c>
+      <c r="J21">
+        <v>15.1</v>
+      </c>
+      <c r="K21">
+        <v>14.3</v>
+      </c>
+      <c r="L21">
+        <v>9.1</v>
+      </c>
+      <c r="M21">
         <v>5.8</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22">
+        <v>-1.7</v>
+      </c>
+      <c r="C22">
+        <v>2.9</v>
+      </c>
+      <c r="D22">
+        <v>3.6</v>
+      </c>
+      <c r="E22">
+        <v>9.1</v>
+      </c>
+      <c r="F22">
+        <v>16</v>
+      </c>
+      <c r="G22">
+        <v>21.5</v>
+      </c>
+      <c r="H22">
+        <v>21.8</v>
+      </c>
+      <c r="I22">
+        <v>20.5</v>
+      </c>
+      <c r="J22">
+        <v>14.9</v>
+      </c>
+      <c r="K22">
+        <v>11.8</v>
+      </c>
+      <c r="L22">
+        <v>6.5</v>
+      </c>
+      <c r="M22">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="C23">
+        <v>6.2</v>
+      </c>
+      <c r="D23">
+        <v>7.4</v>
+      </c>
+      <c r="E23">
+        <v>11.6</v>
+      </c>
+      <c r="F23">
+        <v>19.3</v>
+      </c>
+      <c r="G23">
+        <v>23.8</v>
+      </c>
+      <c r="H23">
+        <v>24.7</v>
+      </c>
+      <c r="I23">
+        <v>24.3</v>
+      </c>
+      <c r="J23">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="K23">
+        <v>14.7</v>
+      </c>
+      <c r="L23">
+        <v>8</v>
+      </c>
+      <c r="M23">
         <v>2.9</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24">
+        <v>2.6</v>
+      </c>
+      <c r="C24">
+        <v>5.3</v>
+      </c>
+      <c r="D24">
+        <v>5.8</v>
+      </c>
+      <c r="E24">
+        <v>9.8000000000000007</v>
+      </c>
+      <c r="F24">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="G24">
+        <v>21.9</v>
+      </c>
+      <c r="H24">
+        <v>22.7</v>
+      </c>
+      <c r="I24">
+        <v>22.9</v>
+      </c>
+      <c r="J24">
+        <v>15.5</v>
+      </c>
+      <c r="K24">
+        <v>12.6</v>
+      </c>
+      <c r="L24">
+        <v>6.9</v>
+      </c>
+      <c r="M24">
         <v>2.2999999999999998</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25">
+        <v>-3.3</v>
+      </c>
+      <c r="C25">
+        <v>-2.2000000000000002</v>
+      </c>
+      <c r="D25">
+        <v>-0.3</v>
+      </c>
+      <c r="E25">
+        <v>3.3</v>
+      </c>
+      <c r="F25">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G25">
+        <v>17</v>
+      </c>
+      <c r="H25">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="I25">
+        <v>19</v>
+      </c>
+      <c r="J25">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="K25">
+        <v>7.6</v>
+      </c>
+      <c r="L25">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="M25">
         <v>-6.7</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26">
+        <v>1.8</v>
+      </c>
+      <c r="C26">
+        <v>5.3</v>
+      </c>
+      <c r="D26">
+        <v>6.3</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26">
+        <v>18.2</v>
+      </c>
+      <c r="G26">
+        <v>22.9</v>
+      </c>
+      <c r="H26">
+        <v>24.6</v>
+      </c>
+      <c r="I26">
+        <v>24.5</v>
+      </c>
+      <c r="J26">
+        <v>16</v>
+      </c>
+      <c r="K26">
+        <v>13</v>
+      </c>
+      <c r="L26">
+        <v>6.7</v>
+      </c>
+      <c r="M26">
         <v>1.2</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>-1.3</v>
+      </c>
+      <c r="D27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="E27">
+        <v>5.3</v>
+      </c>
+      <c r="F27">
+        <v>7.9</v>
+      </c>
+      <c r="G27">
+        <v>9.9</v>
+      </c>
+      <c r="H27">
+        <v>10.8</v>
+      </c>
+      <c r="I27">
+        <v>10.5</v>
+      </c>
+      <c r="J27">
+        <v>9</v>
+      </c>
+      <c r="K27">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="L27">
+        <v>5.3</v>
+      </c>
+      <c r="M27">
         <v>1.6</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28">
+        <v>1.7</v>
+      </c>
+      <c r="C28">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="D28">
+        <v>1.6</v>
+      </c>
+      <c r="E28">
+        <v>5.6</v>
+      </c>
+      <c r="F28">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="G28">
+        <v>16.5</v>
+      </c>
+      <c r="H28">
+        <v>17.8</v>
+      </c>
+      <c r="I28">
+        <v>20.2</v>
+      </c>
+      <c r="J28">
+        <v>10.9</v>
+      </c>
+      <c r="K28">
+        <v>10.9</v>
+      </c>
+      <c r="L28">
+        <v>3.7</v>
+      </c>
+      <c r="M28">
         <v>-2</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29">
+        <v>1.9</v>
+      </c>
+      <c r="C29">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="D29">
+        <v>7</v>
+      </c>
+      <c r="E29">
+        <v>8.8000000000000007</v>
+      </c>
+      <c r="F29">
+        <v>15.5</v>
+      </c>
+      <c r="G29">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="H29">
+        <v>20.7</v>
+      </c>
+      <c r="I29">
+        <v>21.6</v>
+      </c>
+      <c r="J29">
+        <v>13.9</v>
+      </c>
+      <c r="K29">
+        <v>12.9</v>
+      </c>
+      <c r="L29">
+        <v>7.2</v>
+      </c>
+      <c r="M29">
         <v>3.7</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30">
+        <v>11.6</v>
+      </c>
+      <c r="C30">
+        <v>12.4</v>
+      </c>
+      <c r="D30">
+        <v>12.4</v>
+      </c>
+      <c r="E30">
+        <v>15.7</v>
+      </c>
+      <c r="F30">
+        <v>20.3</v>
+      </c>
+      <c r="G30">
+        <v>27</v>
+      </c>
+      <c r="H30">
+        <v>28.4</v>
+      </c>
+      <c r="I30">
+        <v>27.9</v>
+      </c>
+      <c r="J30">
+        <v>25.9</v>
+      </c>
+      <c r="K30">
+        <v>21.6</v>
+      </c>
+      <c r="L30">
+        <v>18</v>
+      </c>
+      <c r="M30">
         <v>13.5</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31">
+        <v>-2.1</v>
+      </c>
+      <c r="C31">
+        <v>-1.4</v>
+      </c>
+      <c r="D31">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="E31">
+        <v>4.7</v>
+      </c>
+      <c r="F31">
+        <v>10.3</v>
+      </c>
+      <c r="G31">
+        <v>16</v>
+      </c>
+      <c r="H31">
+        <v>16.399999999999999</v>
+      </c>
+      <c r="I31">
+        <v>16.2</v>
+      </c>
+      <c r="J31">
+        <v>10.8</v>
+      </c>
+      <c r="K31">
+        <v>6.8</v>
+      </c>
+      <c r="L31">
+        <v>3.2</v>
+      </c>
+      <c r="M31">
         <v>-4.8</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="C32">
+        <v>1.3</v>
+      </c>
+      <c r="D32">
+        <v>3.8</v>
+      </c>
+      <c r="E32">
+        <v>7.4</v>
+      </c>
+      <c r="F32">
+        <v>14.2</v>
+      </c>
+      <c r="G32">
+        <v>19.5</v>
+      </c>
+      <c r="H32">
+        <v>19.7</v>
+      </c>
+      <c r="I32">
+        <v>22.1</v>
+      </c>
+      <c r="J32">
+        <v>12.6</v>
+      </c>
+      <c r="K32">
+        <v>11.2</v>
+      </c>
+      <c r="L32">
+        <v>4.3</v>
+      </c>
+      <c r="M32">
         <v>-0.9</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="D33">
+        <v>4.9000000000000004</v>
+      </c>
+      <c r="E33">
+        <v>11.9</v>
+      </c>
+      <c r="F33">
+        <v>18.3</v>
+      </c>
+      <c r="G33">
+        <v>22.8</v>
+      </c>
+      <c r="H33">
+        <v>25.5</v>
+      </c>
+      <c r="I33">
+        <v>25.5</v>
+      </c>
+      <c r="J33">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="K33">
+        <v>14.1</v>
+      </c>
+      <c r="L33">
+        <v>8.9</v>
+      </c>
+      <c r="M33">
         <v>2.5</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="C34">
+        <v>6.9</v>
+      </c>
+      <c r="D34">
+        <v>6.9</v>
+      </c>
+      <c r="E34">
+        <v>12.2</v>
+      </c>
+      <c r="F34">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="G34">
+        <v>24.5</v>
+      </c>
+      <c r="H34">
+        <v>25.6</v>
+      </c>
+      <c r="I34">
+        <v>24.8</v>
+      </c>
+      <c r="J34">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="K34">
+        <v>15.5</v>
+      </c>
+      <c r="L34">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="M34">
         <v>4</v>
       </c>
     </row>

--- a/temperaturas.xlsx
+++ b/temperaturas.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\silsi\apuntes_clase\PROYECTO-FINAL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57E4698E-FC78-4398-B027-46DD1514AE22}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D30DCAF-32AF-406A-A381-F7ED7DF17575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{08E9103D-1DC9-4F37-A1EF-BE8D19EC3819}"/>
   </bookViews>
@@ -41,40 +41,40 @@
     <t>ciudad</t>
   </si>
   <si>
-    <t>T-Dic</t>
+    <t>ene</t>
   </si>
   <si>
-    <t>T-ene</t>
+    <t>feb</t>
   </si>
   <si>
-    <t>T-feb</t>
+    <t>mer</t>
   </si>
   <si>
-    <t>T-mar</t>
+    <t>abr</t>
   </si>
   <si>
-    <t>T-abr</t>
+    <t>may</t>
   </si>
   <si>
-    <t>T-jun</t>
+    <t>jun</t>
   </si>
   <si>
-    <t>T-jul</t>
+    <t>jul</t>
   </si>
   <si>
-    <t>T-may</t>
+    <t>ago</t>
   </si>
   <si>
-    <t>T-ago</t>
+    <t>sep</t>
   </si>
   <si>
-    <t>T-sep</t>
+    <t>oct</t>
   </si>
   <si>
-    <t>T-oct</t>
+    <t>nov</t>
   </si>
   <si>
-    <t>T-nov</t>
+    <t>dic</t>
   </si>
 </sst>
 </file>
@@ -429,7 +429,7 @@
   <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,19 +439,19 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
         <v>2</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>5</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -460,19 +460,19 @@
         <v>7</v>
       </c>
       <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
         <v>9</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>10</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>11</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.3">
